--- a/data/trans_camb/P16A_R-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P16A_R-Habitat-trans_camb.xlsx
@@ -655,7 +655,7 @@
         <v>8.44957148067383</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>8.467783609358024</v>
+        <v>8.467783609358028</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>3.824728876644507</v>
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-1.198409905689375</v>
+        <v>-1.589512897269453</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-2.387840932201495</v>
+        <v>-2.572702286994129</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1.948192257666712</v>
+        <v>1.985852532356552</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>3.081078838657764</v>
+        <v>3.478588141917595</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>4.129472856167709</v>
+        <v>4.902460537956217</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>5.490521876294073</v>
+        <v>5.572477047195686</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>1.841341363066869</v>
+        <v>1.641146252110832</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>2.049545515019491</v>
+        <v>2.034059477837452</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>4.765350833579123</v>
+        <v>4.813775908038662</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>3.682976911783342</v>
+        <v>3.492925760122508</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>2.475870037911179</v>
+        <v>2.236179794207237</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>7.43667276819395</v>
+        <v>7.570689948621864</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>10.19187641956761</v>
+        <v>10.50704255157568</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>11.67036936974466</v>
+        <v>12.50464544370309</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>11.38631912771406</v>
+        <v>11.66213409746731</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>6.052004298842386</v>
+        <v>5.859335271450274</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>6.726298853318488</v>
+        <v>6.435842664290601</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>8.886266621817256</v>
+        <v>8.93709967784465</v>
       </c>
     </row>
     <row r="7">
@@ -760,7 +760,7 @@
         <v>0.9161768462386726</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.9181515653897374</v>
+        <v>0.9181515653897377</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>0.5231233255545868</v>
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.2002738797134678</v>
+        <v>-0.2510170126160012</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.3724888424932492</v>
+        <v>-0.3888921979198631</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.2817075033585215</v>
+        <v>0.2669860103311855</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.274667761463639</v>
+        <v>0.3194995598666342</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.3810374929428513</v>
+        <v>0.4697481263211606</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4964656367744893</v>
+        <v>0.4987758040967645</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2240530734734875</v>
+        <v>0.1923381246517457</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.2285581374347753</v>
+        <v>0.2407516236745224</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>0.5718855102381434</v>
+        <v>0.5828394686537721</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.8688021664538317</v>
+        <v>0.8103269354489011</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.600674842701247</v>
+        <v>0.5359492216471906</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>1.779417848837018</v>
+        <v>1.747779895512976</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>1.388345180925831</v>
+        <v>1.331388620096027</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.580939509708123</v>
+        <v>1.629538316362801</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.528560630231516</v>
+        <v>1.552278111597427</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.9553384960605424</v>
+        <v>0.9433930958862158</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>1.054666513056056</v>
+        <v>0.9959458285420579</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>1.403502337230806</v>
+        <v>1.444201018078445</v>
       </c>
     </row>
     <row r="10">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.3300869756203202</v>
+        <v>-0.3192676256799669</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-1.001486867693851</v>
+        <v>-1.175524700583358</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-0.505788129348871</v>
+        <v>-0.3028406076869045</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.9991353144179402</v>
+        <v>1.191680549563103</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-0.7049832695050073</v>
+        <v>-1.055802283217292</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>3.322838896057051</v>
+        <v>3.549672558027742</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>1.041315793214661</v>
+        <v>1.084514087613547</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-0.4961970844728157</v>
+        <v>-0.4235795826511712</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>2.212338617527334</v>
+        <v>2.262474076040841</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>4.120864871595904</v>
+        <v>4.200903879319824</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>2.870568861845055</v>
+        <v>3.00555726282727</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>3.918005137190344</v>
+        <v>3.913716086994712</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>7.284317271907851</v>
+        <v>7.462128751748041</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>5.286229442225873</v>
+        <v>5.108932255487226</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>9.05306471993295</v>
+        <v>9.061614901211723</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>4.955511606697914</v>
+        <v>4.911021387734356</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>3.281317791461805</v>
+        <v>3.373750320209126</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>5.817999629141244</v>
+        <v>5.821594671362635</v>
       </c>
     </row>
     <row r="13">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.0691662574894706</v>
+        <v>-0.06286020361412488</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.1813671723127696</v>
+        <v>-0.2033569719407869</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.09165698620383919</v>
+        <v>-0.05708414634371269</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.07285012832167148</v>
+        <v>0.0899901583337306</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.05528619253219447</v>
+        <v>-0.078498341217019</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2457075266985185</v>
+        <v>0.2704621731469316</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1209708118343889</v>
+        <v>0.1184171442606203</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.05109165746547575</v>
+        <v>-0.04472537421239457</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.2415289116307195</v>
+        <v>0.2478598832905888</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>1.054056662016962</v>
+        <v>1.064592678335408</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.734354660585409</v>
+        <v>0.7437597075526671</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>1.007743138136515</v>
+        <v>0.9862056903791162</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.7300559157132738</v>
+        <v>0.7551201786062163</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.5534425324235899</v>
+        <v>0.5167321976504552</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.9360045551370401</v>
+        <v>0.9314391632696383</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.6873020818903829</v>
+        <v>0.6731261859006192</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.4576926194325759</v>
+        <v>0.4659482320607639</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.8061657948045489</v>
+        <v>0.8245541342121446</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>1.943831760261564</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>4.296796011627184</v>
+        <v>4.296796011627186</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>2.667257029601859</v>
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-1.228592780824213</v>
+        <v>-1.257757592645298</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-0.6184847625420472</v>
+        <v>-0.2688045086501954</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1.685761303812721</v>
+        <v>1.903054330519786</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-0.71314919577222</v>
+        <v>-0.845138466393183</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-1.719990329616971</v>
+        <v>-1.664707089600976</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-0.3460332132145957</v>
+        <v>-0.101700141131557</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-0.1521353427449715</v>
+        <v>-0.156662457057415</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-0.2203521652368884</v>
+        <v>-0.2972367544850104</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>1.702640998846674</v>
+        <v>1.594446263663331</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>3.595746139607149</v>
+        <v>3.602608804279894</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>4.211520050810723</v>
+        <v>4.101794886254511</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>6.902208636151993</v>
+        <v>6.98716270067727</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>6.164745186036837</v>
+        <v>6.566204832138793</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>5.277460787021745</v>
+        <v>5.239609803453789</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>6.297875377981504</v>
+        <v>6.234735348269929</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>4.161512587333809</v>
+        <v>4.063302785717145</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>4.0741434511049</v>
+        <v>4.052742680947945</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>5.914579932759263</v>
+        <v>5.87747515296595</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>0.4550704511791446</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>1.005922909384307</v>
+        <v>1.005922909384308</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>0.2188456372055133</v>
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.2611147910283101</v>
+        <v>-0.2545178398999516</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.1165631313202749</v>
+        <v>-0.08306370034944351</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.3062158272584041</v>
+        <v>0.3132200966993621</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.05255224331616804</v>
+        <v>-0.06984826548118014</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.1321249033447718</v>
+        <v>-0.1206122395404238</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.02382877307904878</v>
+        <v>-0.007957617869402769</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.0191805864907475</v>
+        <v>-0.01870461582769711</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.02674314482757125</v>
+        <v>-0.03089450239142698</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.1846772355054944</v>
+        <v>0.162090970102484</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>1.090943042921981</v>
+        <v>1.070864023558341</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>1.322209639334523</v>
+        <v>1.320270377450169</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>2.152798826888708</v>
+        <v>2.149831546499682</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.5921731356941379</v>
+        <v>0.620736352534738</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.4818417649442154</v>
+        <v>0.4754095330248053</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.5973250449113646</v>
+        <v>0.6019398846324899</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.5764556780312584</v>
+        <v>0.5666562791941742</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.5661316013046721</v>
+        <v>0.5745631626099134</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.8331274947012005</v>
+        <v>0.8068810956201163</v>
       </c>
     </row>
     <row r="22">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.499404672650643</v>
+        <v>0.3631832514003267</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.1972403785393642</v>
+        <v>0.4582281728999814</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2.570367574006799</v>
+        <v>2.368143741035113</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>1.635409500290048</v>
+        <v>1.200617428119547</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>1.198908771881185</v>
+        <v>1.798193792210318</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>3.884281363375916</v>
+        <v>4.174877815956664</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>1.621462519470114</v>
+        <v>1.702253906891583</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>1.716355030199083</v>
+        <v>1.656099707460232</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>4.136541093833061</v>
+        <v>4.067313879800944</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>4.87196103124591</v>
+        <v>5.00733551251433</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>4.838300397846213</v>
+        <v>4.694263065436358</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>7.232195905682076</v>
+        <v>6.922360478458057</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>7.588790693703565</v>
+        <v>7.429799757696866</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>7.636653909843587</v>
+        <v>8.193043804976945</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>9.58122637413148</v>
+        <v>9.930422322981372</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>5.490878934927271</v>
+        <v>5.577448024661616</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>5.781095216332022</v>
+        <v>5.632745917919848</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>7.648185189765501</v>
+        <v>7.753386015368514</v>
       </c>
     </row>
     <row r="25">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.08393640077863797</v>
+        <v>0.06236662410042879</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.02498533781257598</v>
+        <v>0.07419546616302554</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.4343416154282891</v>
+        <v>0.3713663363097066</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.1202068202409519</v>
+        <v>0.0922466287969624</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.09102010919547704</v>
+        <v>0.1364577829502572</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.293483034979992</v>
+        <v>0.3132337574803052</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1704920682004639</v>
+        <v>0.1842285635905677</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.1874033859177854</v>
+        <v>0.1731486522824872</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.4391655841470137</v>
+        <v>0.4293704323406268</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>1.19825148769561</v>
+        <v>1.229336473661161</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>1.214333808016576</v>
+        <v>1.172275631394804</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>1.757431361433747</v>
+        <v>1.675894680979702</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.7639707324701061</v>
+        <v>0.7403797490960665</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.7455318341943931</v>
+        <v>0.8123622968189141</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.9447053477726757</v>
+        <v>0.9972648698311821</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.724572864212734</v>
+        <v>0.7379218675322395</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.7660559170685584</v>
+        <v>0.7386510854629385</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>1.009402015395577</v>
+        <v>1.054080610330095</v>
       </c>
     </row>
     <row r="28">
@@ -1511,7 +1511,7 @@
         <v>4.03682539837888</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>6.309216883795001</v>
+        <v>6.309216883795004</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>3.121797281924706</v>
@@ -1520,7 +1520,7 @@
         <v>2.742744358832122</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>5.094239653000815</v>
+        <v>5.094239653000812</v>
       </c>
     </row>
     <row r="29">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.5823487988698702</v>
+        <v>0.6184963411900705</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.2555601940883919</v>
+        <v>0.2188341866996894</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>2.570456558918284</v>
+        <v>2.55700971866366</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>2.729094838576984</v>
+        <v>2.779781044432083</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>2.405446513924319</v>
+        <v>2.222287583228462</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>4.907285073765542</v>
+        <v>4.726945849348558</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>2.004326546162899</v>
+        <v>2.101170916310945</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>1.608107824978439</v>
+        <v>1.790679345964859</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>4.167552277989968</v>
+        <v>4.012273313755379</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>2.914174455213462</v>
+        <v>2.984296036048545</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>2.571249637161936</v>
+        <v>2.496070720777508</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>4.878344387554261</v>
+        <v>4.821466991925799</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>6.160548015201941</v>
+        <v>6.038075465615874</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>5.570163756668191</v>
+        <v>5.704457617289732</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>7.923842962013812</v>
+        <v>7.787763915821923</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>4.070582135379276</v>
+        <v>4.223453280194209</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>3.709634076854064</v>
+        <v>3.836204268936772</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>6.160976536397325</v>
+        <v>5.972291431157754</v>
       </c>
     </row>
     <row r="31">
@@ -1616,7 +1616,7 @@
         <v>0.3620215041609057</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.5658090110278469</v>
+        <v>0.5658090110278471</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>0.3863261192486228</v>
@@ -1625,7 +1625,7 @@
         <v>0.3394178700755952</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>0.6304182039818057</v>
+        <v>0.6304182039818054</v>
       </c>
     </row>
     <row r="32">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>0.1052277491570087</v>
+        <v>0.1160890543533992</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>0.04980652655526999</v>
+        <v>0.03267004981769421</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>0.4741095301982741</v>
+        <v>0.4667471550428646</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.2300710971833856</v>
+        <v>0.2338339805472674</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.2006506830357439</v>
+        <v>0.18749428175966</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.4063603284476718</v>
+        <v>0.3887481872769811</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.2306407115105716</v>
+        <v>0.2461012268482822</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>0.1881055866172614</v>
+        <v>0.210404224773522</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>0.4782561519264297</v>
+        <v>0.4692570055677099</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.6706178842543478</v>
+        <v>0.6685297898864957</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.5819694766726705</v>
+        <v>0.557314535681331</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>1.124090617704701</v>
+        <v>1.084420789481186</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.5918998826919627</v>
+        <v>0.5772368761267443</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.5308737166014468</v>
+        <v>0.542898876887735</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.7799187835801218</v>
+        <v>0.7537594319803055</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.53168363252497</v>
+        <v>0.5511758271916906</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.4946428238166927</v>
+        <v>0.5167438327958386</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.8186221472013256</v>
+        <v>0.7825058242341411</v>
       </c>
     </row>
     <row r="34">
